--- a/parametros_control/Parametros.xlsx
+++ b/parametros_control/Parametros.xlsx
@@ -1,26 +1,463 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Z_Proyectos\control_GPS\parametros_control\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1892B42-43A2-4EF3-82DC-F3BA78DA8737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="PARAMETROS" sheetId="1" r:id="rId1"/>
+    <sheet name="UBICACIONES" sheetId="3" r:id="rId2"/>
+    <sheet name="VEHICULOS" sheetId="4" r:id="rId3"/>
+    <sheet name="LISTAS" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="136">
+  <si>
+    <t>Parámetro</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Observación</t>
+  </si>
+  <si>
+    <t>Tipo de ejecución</t>
+  </si>
+  <si>
+    <t>Opciones</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Descarga + Clasificación</t>
+  </si>
+  <si>
+    <t>Descarga</t>
+  </si>
+  <si>
+    <t>Clasificación</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Perimetro KM</t>
+  </si>
+  <si>
+    <t>Latitud</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>Aeropuerto EOH</t>
+  </si>
+  <si>
+    <t>Aeropuerto JMC</t>
+  </si>
+  <si>
+    <t>Carmen de Viboral</t>
+  </si>
+  <si>
+    <t>Casa Gardeliana</t>
+  </si>
+  <si>
+    <t>Comuna 13 - Graffitour</t>
+  </si>
+  <si>
+    <t>El Peñol</t>
+  </si>
+  <si>
+    <t>El Retiro</t>
+  </si>
+  <si>
+    <t>El Tequendamita</t>
+  </si>
+  <si>
+    <t>Estadio Atanasio Girardot</t>
+  </si>
+  <si>
+    <t>Finca La Cima Fredonia</t>
+  </si>
+  <si>
+    <t>Guarne</t>
+  </si>
+  <si>
+    <t>Guarne Cuatrimotos ATVS</t>
+  </si>
+  <si>
+    <t>Guatapé</t>
+  </si>
+  <si>
+    <t>Hotel Bin</t>
+  </si>
+  <si>
+    <t>Hotel Click Clack</t>
+  </si>
+  <si>
+    <t>Hotel Diez</t>
+  </si>
+  <si>
+    <t>Hotel El Cielo</t>
+  </si>
+  <si>
+    <t>Hotel Hash Tag</t>
+  </si>
+  <si>
+    <t>Hotel Marriott</t>
+  </si>
+  <si>
+    <t>Hotel Poblado Plaza</t>
+  </si>
+  <si>
+    <t>Hotel San Fernando</t>
+  </si>
+  <si>
+    <t>Hotel York</t>
+  </si>
+  <si>
+    <t>Jardín</t>
+  </si>
+  <si>
+    <t>Jardín Botánico</t>
+  </si>
+  <si>
+    <t>Jericó</t>
+  </si>
+  <si>
+    <t>La Alpujarra</t>
+  </si>
+  <si>
+    <t>La Ceja</t>
+  </si>
+  <si>
+    <t>La Tanguería Parrilla</t>
+  </si>
+  <si>
+    <t>Museo Casa de la Memoria</t>
+  </si>
+  <si>
+    <t>Oficina EC</t>
+  </si>
+  <si>
+    <t>Parque Arví</t>
+  </si>
+  <si>
+    <t>Parque Inflexión</t>
+  </si>
+  <si>
+    <t>Parque Lleras</t>
+  </si>
+  <si>
+    <t>Parque Pies Descalzos</t>
+  </si>
+  <si>
+    <t>Parque Poblado</t>
+  </si>
+  <si>
+    <t>Parques del Río</t>
+  </si>
+  <si>
+    <t>Plaza Botero</t>
+  </si>
+  <si>
+    <t>Provenza</t>
+  </si>
+  <si>
+    <t>Pueblito Paisa</t>
+  </si>
+  <si>
+    <t>Río Claro</t>
+  </si>
+  <si>
+    <t>Rionegro</t>
+  </si>
+  <si>
+    <t>San Ant. Pereira</t>
+  </si>
+  <si>
+    <t>San Félix</t>
+  </si>
+  <si>
+    <t>San Francisco Ancestros</t>
+  </si>
+  <si>
+    <t>San Jerónimo</t>
+  </si>
+  <si>
+    <t>San Sebastían Palmitas</t>
+  </si>
+  <si>
+    <t>Santa Elena</t>
+  </si>
+  <si>
+    <t>Santa Fe Antioquia</t>
+  </si>
+  <si>
+    <t>Placa</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>EQS822</t>
+  </si>
+  <si>
+    <t>Propio</t>
+  </si>
+  <si>
+    <t>EQT288</t>
+  </si>
+  <si>
+    <t>Afiliado Indirecto</t>
+  </si>
+  <si>
+    <t>EQT293</t>
+  </si>
+  <si>
+    <t>ESQ528</t>
+  </si>
+  <si>
+    <t>ESQ530</t>
+  </si>
+  <si>
+    <t>ESQ531</t>
+  </si>
+  <si>
+    <t>ESQ532</t>
+  </si>
+  <si>
+    <t>FVY467</t>
+  </si>
+  <si>
+    <t>Afiliado</t>
+  </si>
+  <si>
+    <t>FVY696</t>
+  </si>
+  <si>
+    <t>FWK116</t>
+  </si>
+  <si>
+    <t>FWK698</t>
+  </si>
+  <si>
+    <t>GDW306</t>
+  </si>
+  <si>
+    <t>GDW816</t>
+  </si>
+  <si>
+    <t>GDW817</t>
+  </si>
+  <si>
+    <t>GDX011</t>
+  </si>
+  <si>
+    <t>GDX820</t>
+  </si>
+  <si>
+    <t>GDX911</t>
+  </si>
+  <si>
+    <t>Retirado</t>
+  </si>
+  <si>
+    <t>GET078</t>
+  </si>
+  <si>
+    <t>GTX120</t>
+  </si>
+  <si>
+    <t>Convenio</t>
+  </si>
+  <si>
+    <t>GTX589</t>
+  </si>
+  <si>
+    <t>GTX665</t>
+  </si>
+  <si>
+    <t>GTY005</t>
+  </si>
+  <si>
+    <t>GTY182</t>
+  </si>
+  <si>
+    <t>GTY207</t>
+  </si>
+  <si>
+    <t>JYN609</t>
+  </si>
+  <si>
+    <t>JYN779</t>
+  </si>
+  <si>
+    <t>Tercero</t>
+  </si>
+  <si>
+    <t>JYN957</t>
+  </si>
+  <si>
+    <t>JYO140</t>
+  </si>
+  <si>
+    <t>JYO214</t>
+  </si>
+  <si>
+    <t>JYO216</t>
+  </si>
+  <si>
+    <t>JYO219</t>
+  </si>
+  <si>
+    <t>JYO296</t>
+  </si>
+  <si>
+    <t>JYO480</t>
+  </si>
+  <si>
+    <t>JYO662</t>
+  </si>
+  <si>
+    <t>JYO703</t>
+  </si>
+  <si>
+    <t>JYW996</t>
+  </si>
+  <si>
+    <t>JYX248</t>
+  </si>
+  <si>
+    <t>JYY309</t>
+  </si>
+  <si>
+    <t>SMV578</t>
+  </si>
+  <si>
+    <t>SNV577</t>
+  </si>
+  <si>
+    <t>SOI001</t>
+  </si>
+  <si>
+    <t>SPH748</t>
+  </si>
+  <si>
+    <t>STV080</t>
+  </si>
+  <si>
+    <t>SVO602</t>
+  </si>
+  <si>
+    <t>TLM883</t>
+  </si>
+  <si>
+    <t>TOQ885</t>
+  </si>
+  <si>
+    <t>TSO435</t>
+  </si>
+  <si>
+    <t>TSZ878</t>
+  </si>
+  <si>
+    <t>WCW727</t>
+  </si>
+  <si>
+    <t>WLP530</t>
+  </si>
+  <si>
+    <t>WMQ691</t>
+  </si>
+  <si>
+    <t>ESQ700</t>
+  </si>
+  <si>
+    <t>JYO218</t>
+  </si>
+  <si>
+    <t>JYO987</t>
+  </si>
+  <si>
+    <t>JYY057</t>
+  </si>
+  <si>
+    <t>TRG764</t>
+  </si>
+  <si>
+    <t>JYN751</t>
+  </si>
+  <si>
+    <t>WLZ156</t>
+  </si>
+  <si>
+    <t>ESK362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTX665 </t>
+  </si>
+  <si>
+    <t>Ruta reporte</t>
+  </si>
+  <si>
+    <t>Ruta resultados</t>
+  </si>
+  <si>
+    <t>C:\Z_Proyectos\control_GPS\reportes\Trip report(20221105-20221105).xlsx</t>
+  </si>
+  <si>
+    <t>C:\Z_Proyectos\control_GPS\control</t>
+  </si>
+  <si>
+    <t>Ruta donde se guardarán los resultados del control</t>
+  </si>
+  <si>
+    <t>Reporte que se quiere analizar. Debe terminar en .xlsx</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +465,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +500,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +805,1287 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="125.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D58D0E3-E8F1-420F-9019-042E5BD1C01E}">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C2" s="9">
+        <v>6.21950405974993</v>
+      </c>
+      <c r="D2" s="10">
+        <v>-75.586440505286703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>6.1714071611795296</v>
+      </c>
+      <c r="D3" s="10">
+        <v>-75.429384754988703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>6.08021477157045</v>
+      </c>
+      <c r="D4" s="10">
+        <v>-75.333993792820607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>6.2690978234772397</v>
+      </c>
+      <c r="D5" s="10">
+        <v>-75.554711374268706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>6.2544519168949799</v>
+      </c>
+      <c r="D6" s="10">
+        <v>-75.614990873010399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>6.2184524747295802</v>
+      </c>
+      <c r="D7" s="10">
+        <v>-75.243475538629397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>6.0590689157753603</v>
+      </c>
+      <c r="D8" s="10">
+        <v>-75.502830294284095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="9">
+        <v>6.0826512165751003</v>
+      </c>
+      <c r="D9" s="10">
+        <v>-75.476507435851701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="9">
+        <v>6.25694092581129</v>
+      </c>
+      <c r="D10" s="10">
+        <v>-75.589443129014597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C11" s="9">
+        <v>5.9479272175227802</v>
+      </c>
+      <c r="D11" s="10">
+        <v>-75.676602942603495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="C12" s="9">
+        <v>6.2815712919825302</v>
+      </c>
+      <c r="D12" s="10">
+        <v>-75.443686295991895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="C13" s="9">
+        <v>6.2517579485798596</v>
+      </c>
+      <c r="D13" s="10">
+        <v>-75.440139208031496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C14" s="9">
+        <v>6.2329078939465399</v>
+      </c>
+      <c r="D14" s="10">
+        <v>-75.1593806079605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="9">
+        <v>6.2087524066084097</v>
+      </c>
+      <c r="D15" s="10">
+        <v>-75.555097428042401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="9">
+        <v>6.2100289410257803</v>
+      </c>
+      <c r="D16" s="10">
+        <v>-75.566435994221195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="9">
+        <v>6.2090235044744402</v>
+      </c>
+      <c r="D17" s="10">
+        <v>-75.565134003868295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="9">
+        <v>6.2091816100726396</v>
+      </c>
+      <c r="D18" s="10">
+        <v>-75.573102647007204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="9">
+        <v>6.2103903481713996</v>
+      </c>
+      <c r="D19" s="10">
+        <v>-75.568642288210796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="9">
+        <v>6.2030957724805598</v>
+      </c>
+      <c r="D20" s="10">
+        <v>-75.572730693942901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>6.2002203215369001</v>
+      </c>
+      <c r="D21" s="10">
+        <v>-75.573509149363503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="9">
+        <v>6.2034824998524796</v>
+      </c>
+      <c r="D22" s="10">
+        <v>-75.570830159458396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="9">
+        <v>6.18702325101947</v>
+      </c>
+      <c r="D23" s="10">
+        <v>-75.578080149782593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>5.5989024693962204</v>
+      </c>
+      <c r="D24" s="10">
+        <v>-75.819361051467197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="9">
+        <v>6.2707878332510401</v>
+      </c>
+      <c r="D25" s="10">
+        <v>-75.563654726594805</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2</v>
+      </c>
+      <c r="C26" s="9">
+        <v>5.7922166585864003</v>
+      </c>
+      <c r="D26" s="10">
+        <v>-75.786153234121201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="C27" s="9">
+        <v>6.2443400313649997</v>
+      </c>
+      <c r="D27" s="10">
+        <v>-75.573164955311995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="8">
+        <v>2</v>
+      </c>
+      <c r="C28" s="9">
+        <v>6.0305079132289903</v>
+      </c>
+      <c r="D28" s="10">
+        <v>-75.431139005847001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C29" s="9">
+        <v>6.2068218453039199</v>
+      </c>
+      <c r="D29" s="10">
+        <v>-75.5648924506919</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="9">
+        <v>6.2458919704086799</v>
+      </c>
+      <c r="D30" s="10">
+        <v>-75.556589067723394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C31" s="9">
+        <v>6.2210272261889399</v>
+      </c>
+      <c r="D31" s="10">
+        <v>-75.580911286710503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C32" s="9">
+        <v>6.2814830539928996</v>
+      </c>
+      <c r="D32" s="10">
+        <v>-75.502780601589194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="C33" s="9">
+        <v>6.1913574518074999</v>
+      </c>
+      <c r="D33" s="10">
+        <v>-75.577635076463807</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="9">
+        <v>6.2089180942469797</v>
+      </c>
+      <c r="D34" s="10">
+        <v>-75.567766214074993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="9">
+        <v>6.2449665169272501</v>
+      </c>
+      <c r="D35" s="10">
+        <v>-75.5770030188947</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="9">
+        <v>6.2103021565227401</v>
+      </c>
+      <c r="D36" s="10">
+        <v>-75.570957926339005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="9">
+        <v>6.2434559413280697</v>
+      </c>
+      <c r="D37" s="10">
+        <v>-75.579228936687102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="9">
+        <v>6.2521499795189497</v>
+      </c>
+      <c r="D38" s="10">
+        <v>-75.568562084951495</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="9">
+        <v>6.2070180542331199</v>
+      </c>
+      <c r="D39" s="10">
+        <v>-75.565141673383195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="9">
+        <v>6.23627868295236</v>
+      </c>
+      <c r="D40" s="10">
+        <v>-75.580116022741805</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="C41" s="9">
+        <v>5.5895535361323399</v>
+      </c>
+      <c r="D41" s="10">
+        <v>-75.867449432086104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C42" s="9">
+        <v>6.1509154715944598</v>
+      </c>
+      <c r="D42" s="10">
+        <v>-75.378298998654998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="C43" s="9">
+        <v>6.1296789385017396</v>
+      </c>
+      <c r="D43" s="10">
+        <v>-75.3807390473102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="C44" s="9">
+        <v>6.3296382717111799</v>
+      </c>
+      <c r="D44" s="10">
+        <v>-75.597157995045904</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C45" s="9">
+        <v>5.97215087202835</v>
+      </c>
+      <c r="D45" s="10">
+        <v>-75.109036255768899</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C46" s="9">
+        <v>6.4432207647767097</v>
+      </c>
+      <c r="D46" s="10">
+        <v>-75.728381135521403</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C47" s="9">
+        <v>6.3448626804805004</v>
+      </c>
+      <c r="D47" s="10">
+        <v>-75.696389579864103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C48" s="9">
+        <v>6.2105718332976299</v>
+      </c>
+      <c r="D48" s="10">
+        <v>-75.497752595699495</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C49" s="9">
+        <v>6.55936690509008</v>
+      </c>
+      <c r="D49" s="10">
+        <v>-75.827850422625502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47136810-CA43-49F0-876E-38A7AE6E3CAB}">
+  <dimension ref="A1:B61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422D0D3-FE55-49B8-A15F-655B8CC8A4E0}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/parametros_control/Parametros.xlsx
+++ b/parametros_control/Parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Z_Proyectos\control_GPS\parametros_control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1892B42-43A2-4EF3-82DC-F3BA78DA8737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19454FF6-D482-455C-A955-743CC63972A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARAMETROS" sheetId="1" r:id="rId1"/>
@@ -809,7 +809,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,9 +862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D58D0E3-E8F1-420F-9019-042E5BD1C01E}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1567,7 +1565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47136810-CA43-49F0-876E-38A7AE6E3CAB}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/parametros_control/Parametros.xlsx
+++ b/parametros_control/Parametros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Z_Proyectos\control_GPS\parametros_control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\13 Auxadmin\control_GPS\parametros_control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19454FF6-D482-455C-A955-743CC63972A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C234DA3-DFEA-44E0-9DE2-C128C9D824B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARAMETROS" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="VEHICULOS" sheetId="4" r:id="rId3"/>
     <sheet name="LISTAS" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,12 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="138">
   <si>
     <t>Parámetro</t>
   </si>
@@ -437,16 +434,22 @@
     <t>Ruta resultados</t>
   </si>
   <si>
-    <t>C:\Z_Proyectos\control_GPS\reportes\Trip report(20221105-20221105).xlsx</t>
-  </si>
-  <si>
-    <t>C:\Z_Proyectos\control_GPS\control</t>
-  </si>
-  <si>
     <t>Ruta donde se guardarán los resultados del control</t>
   </si>
   <si>
     <t>Reporte que se quiere analizar. Debe terminar en .xlsx</t>
+  </si>
+  <si>
+    <t>Novotel</t>
+  </si>
+  <si>
+    <t>Conductor</t>
+  </si>
+  <si>
+    <t>Z:\13 Auxadmin\control_GPS\control</t>
+  </si>
+  <si>
+    <t>Z:\13 Auxadmin\control_GPS\reportes\Trip report(20221117-20221117).xlsx</t>
   </si>
 </sst>
 </file>
@@ -809,7 +812,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,10 +839,10 @@
         <v>130</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -847,10 +850,10 @@
         <v>131</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -860,9 +863,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D58D0E3-E8F1-420F-9019-042E5BD1C01E}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1556,6 +1561,20 @@
         <v>-75.827850422625502</v>
       </c>
     </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C50">
+        <v>6.1980793652032604</v>
+      </c>
+      <c r="D50" s="10">
+        <v>-75.558378614763598</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1563,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47136810-CA43-49F0-876E-38A7AE6E3CAB}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,15 +1594,18 @@
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1591,7 +1613,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1599,7 +1621,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -1607,7 +1629,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -1615,7 +1637,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1623,7 +1645,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1631,7 +1653,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1639,7 +1661,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -1647,7 +1669,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -1655,7 +1677,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -1663,7 +1685,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -1671,7 +1693,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -1679,7 +1701,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -1687,7 +1709,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -1695,7 +1717,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -1995,45 +2017,72 @@
       <c r="A53" t="s">
         <v>121</v>
       </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>122</v>
       </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>123</v>
       </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>124</v>
       </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>125</v>
       </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>126</v>
       </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>127</v>
       </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>128</v>
       </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>129</v>
+      </c>
+      <c r="B61" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/parametros_control/Parametros.xlsx
+++ b/parametros_control/Parametros.xlsx
@@ -5,20 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\13 Auxadmin\control_GPS\parametros_control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Z_Proyectos\control_GPS\parametros_control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C234DA3-DFEA-44E0-9DE2-C128C9D824B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3911B2D3-2364-493B-9EFE-C3608FEACE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARAMETROS" sheetId="1" r:id="rId1"/>
     <sheet name="UBICACIONES" sheetId="3" r:id="rId2"/>
     <sheet name="VEHICULOS" sheetId="4" r:id="rId3"/>
-    <sheet name="LISTAS" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="CRONOGRAMA" sheetId="5" r:id="rId4"/>
+    <sheet name="LISTAS" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">VEHICULOS!$A$1:$C$61</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +30,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="188">
   <si>
     <t>Parámetro</t>
   </si>
@@ -450,6 +457,156 @@
   </si>
   <si>
     <t>Z:\13 Auxadmin\control_GPS\reportes\Trip report(20221117-20221117).xlsx</t>
+  </si>
+  <si>
+    <t>CONDUCTOR</t>
+  </si>
+  <si>
+    <t>ALBERTO BEDOYA</t>
+  </si>
+  <si>
+    <t>MAÑANA</t>
+  </si>
+  <si>
+    <t>DESCANSA</t>
+  </si>
+  <si>
+    <t>TARDE NOCHE</t>
+  </si>
+  <si>
+    <t>MEDIA MAÑANA</t>
+  </si>
+  <si>
+    <t>MADRUGADA</t>
+  </si>
+  <si>
+    <t>ALEXANDER VALENCIA</t>
+  </si>
+  <si>
+    <t>ALONSO RAMIREZ</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ANDRES VERGARA</t>
+  </si>
+  <si>
+    <t>ARTURO USMA</t>
+  </si>
+  <si>
+    <t>CARLOS AGUDELO</t>
+  </si>
+  <si>
+    <t>CELSO PACHECO</t>
+  </si>
+  <si>
+    <t>CRISTIAM OSORIO</t>
+  </si>
+  <si>
+    <t>CRISTIAN LOPEZ</t>
+  </si>
+  <si>
+    <t>DAVID ZULUAGA</t>
+  </si>
+  <si>
+    <t>DARIO MONTOYA</t>
+  </si>
+  <si>
+    <t>VACACIONES</t>
+  </si>
+  <si>
+    <t>EDWIN RAMIREZ</t>
+  </si>
+  <si>
+    <t>FERNANDO ROJAS</t>
+  </si>
+  <si>
+    <t>FERNANDO TORRES</t>
+  </si>
+  <si>
+    <t>GUSTAVO ARROYAVE</t>
+  </si>
+  <si>
+    <t>HERNAN LOPEZ</t>
+  </si>
+  <si>
+    <t>HEVERT BECERRA</t>
+  </si>
+  <si>
+    <t>JAIRO RUIZ</t>
+  </si>
+  <si>
+    <t>JORGE ELEJALDE</t>
+  </si>
+  <si>
+    <t>JOSE RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>JOVAN VELEZ</t>
+  </si>
+  <si>
+    <t>JUAN DAVID RUIZ</t>
+  </si>
+  <si>
+    <t>JULIO GUZMAN</t>
+  </si>
+  <si>
+    <t>JUAN GALARZA</t>
+  </si>
+  <si>
+    <t>JHONATAN CARDENAS</t>
+  </si>
+  <si>
+    <t>LUIS SERNA</t>
+  </si>
+  <si>
+    <t>RICHARD TORO</t>
+  </si>
+  <si>
+    <t>MIGUEL URIBE</t>
+  </si>
+  <si>
+    <t>OSWALDO GIRALDO</t>
+  </si>
+  <si>
+    <t>SANTIAGO LLANOS</t>
+  </si>
+  <si>
+    <t>SEBASTIAN VIANA</t>
+  </si>
+  <si>
+    <t>YEFERSON MORALES</t>
+  </si>
+  <si>
+    <t>WILLIAM BELLO</t>
+  </si>
+  <si>
+    <t>WILSON CAMILO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CRISTIAN OSORIO</t>
+  </si>
+  <si>
+    <t>WILLIAN ANDRES BELLO</t>
+  </si>
+  <si>
+    <t>JESUS RIVERA</t>
+  </si>
+  <si>
+    <t>JAIME RESTREPO</t>
+  </si>
+  <si>
+    <t>JUAN STIVEN GALARZA</t>
+  </si>
+  <si>
+    <t>LUIS ARENAS</t>
+  </si>
+  <si>
+    <t>Acopio</t>
   </si>
 </sst>
 </file>
@@ -460,7 +617,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +632,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -503,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -529,6 +693,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,19 +1033,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D58D0E3-E8F1-420F-9019-042E5BD1C01E}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -888,8 +1057,11 @@
       <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -902,8 +1074,9 @@
       <c r="D2" s="10">
         <v>-75.586440505286703</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -916,8 +1089,9 @@
       <c r="D3" s="10">
         <v>-75.429384754988703</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -930,8 +1104,9 @@
       <c r="D4" s="10">
         <v>-75.333993792820607</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -944,8 +1119,9 @@
       <c r="D5" s="10">
         <v>-75.554711374268706</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -958,8 +1134,9 @@
       <c r="D6" s="10">
         <v>-75.614990873010399</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -972,8 +1149,9 @@
       <c r="D7" s="10">
         <v>-75.243475538629397</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -986,8 +1164,9 @@
       <c r="D8" s="10">
         <v>-75.502830294284095</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1000,8 +1179,9 @@
       <c r="D9" s="10">
         <v>-75.476507435851701</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1014,8 +1194,9 @@
       <c r="D10" s="10">
         <v>-75.589443129014597</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1028,8 +1209,9 @@
       <c r="D11" s="10">
         <v>-75.676602942603495</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1042,8 +1224,9 @@
       <c r="D12" s="10">
         <v>-75.443686295991895</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1056,8 +1239,9 @@
       <c r="D13" s="10">
         <v>-75.440139208031496</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1070,8 +1254,9 @@
       <c r="D14" s="10">
         <v>-75.1593806079605</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1084,8 +1269,9 @@
       <c r="D15" s="10">
         <v>-75.555097428042401</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1098,8 +1284,9 @@
       <c r="D16" s="10">
         <v>-75.566435994221195</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1112,8 +1299,9 @@
       <c r="D17" s="10">
         <v>-75.565134003868295</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1126,8 +1314,9 @@
       <c r="D18" s="10">
         <v>-75.573102647007204</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1140,8 +1329,9 @@
       <c r="D19" s="10">
         <v>-75.568642288210796</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1154,8 +1344,11 @@
       <c r="D20" s="10">
         <v>-75.572730693942901</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1168,8 +1361,9 @@
       <c r="D21" s="10">
         <v>-75.573509149363503</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1182,8 +1376,9 @@
       <c r="D22" s="10">
         <v>-75.570830159458396</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1196,8 +1391,11 @@
       <c r="D23" s="10">
         <v>-75.578080149782593</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1210,8 +1408,9 @@
       <c r="D24" s="10">
         <v>-75.819361051467197</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1224,8 +1423,9 @@
       <c r="D25" s="10">
         <v>-75.563654726594805</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1238,8 +1438,9 @@
       <c r="D26" s="10">
         <v>-75.786153234121201</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1252,8 +1453,9 @@
       <c r="D27" s="10">
         <v>-75.573164955311995</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1266,8 +1468,9 @@
       <c r="D28" s="10">
         <v>-75.431139005847001</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1280,8 +1483,9 @@
       <c r="D29" s="10">
         <v>-75.5648924506919</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1294,8 +1498,9 @@
       <c r="D30" s="10">
         <v>-75.556589067723394</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1308,8 +1513,9 @@
       <c r="D31" s="10">
         <v>-75.580911286710503</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1322,8 +1528,9 @@
       <c r="D32" s="10">
         <v>-75.502780601589194</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -1336,8 +1543,9 @@
       <c r="D33" s="10">
         <v>-75.577635076463807</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1350,8 +1558,9 @@
       <c r="D34" s="10">
         <v>-75.567766214074993</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -1364,8 +1573,9 @@
       <c r="D35" s="10">
         <v>-75.5770030188947</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -1378,8 +1588,9 @@
       <c r="D36" s="10">
         <v>-75.570957926339005</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -1392,8 +1603,9 @@
       <c r="D37" s="10">
         <v>-75.579228936687102</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -1406,8 +1618,9 @@
       <c r="D38" s="10">
         <v>-75.568562084951495</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -1420,8 +1633,9 @@
       <c r="D39" s="10">
         <v>-75.565141673383195</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -1434,8 +1648,9 @@
       <c r="D40" s="10">
         <v>-75.580116022741805</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -1448,8 +1663,9 @@
       <c r="D41" s="10">
         <v>-75.867449432086104</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -1462,8 +1678,9 @@
       <c r="D42" s="10">
         <v>-75.378298998654998</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -1476,8 +1693,9 @@
       <c r="D43" s="10">
         <v>-75.3807390473102</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -1490,8 +1708,9 @@
       <c r="D44" s="10">
         <v>-75.597157995045904</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -1504,8 +1723,9 @@
       <c r="D45" s="10">
         <v>-75.109036255768899</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -1518,8 +1738,9 @@
       <c r="D46" s="10">
         <v>-75.728381135521403</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -1532,8 +1753,9 @@
       <c r="D47" s="10">
         <v>-75.696389579864103</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -1546,8 +1768,9 @@
       <c r="D48" s="10">
         <v>-75.497752595699495</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -1560,8 +1783,9 @@
       <c r="D49" s="10">
         <v>-75.827850422625502</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>134</v>
       </c>
@@ -1574,6 +1798,7 @@
       <c r="D50" s="10">
         <v>-75.558378614763598</v>
       </c>
+      <c r="E50" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1584,14 +1809,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47136810-CA43-49F0-876E-38A7AE6E3CAB}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1612,6 +1838,9 @@
       <c r="B2" t="s">
         <v>65</v>
       </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1620,6 +1849,9 @@
       <c r="B3" t="s">
         <v>67</v>
       </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1628,6 +1860,9 @@
       <c r="B4" t="s">
         <v>67</v>
       </c>
+      <c r="C4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1636,6 +1871,9 @@
       <c r="B5" t="s">
         <v>65</v>
       </c>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1644,6 +1882,9 @@
       <c r="B6" t="s">
         <v>65</v>
       </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1652,6 +1893,9 @@
       <c r="B7" t="s">
         <v>65</v>
       </c>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1660,6 +1904,9 @@
       <c r="B8" t="s">
         <v>67</v>
       </c>
+      <c r="C8" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1668,6 +1915,9 @@
       <c r="B9" t="s">
         <v>74</v>
       </c>
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1676,6 +1926,9 @@
       <c r="B10" t="s">
         <v>67</v>
       </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1684,6 +1937,9 @@
       <c r="B11" t="s">
         <v>74</v>
       </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1692,6 +1948,9 @@
       <c r="B12" t="s">
         <v>74</v>
       </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1700,6 +1959,9 @@
       <c r="B13" t="s">
         <v>74</v>
       </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1708,6 +1970,9 @@
       <c r="B14" t="s">
         <v>67</v>
       </c>
+      <c r="C14" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1716,6 +1981,9 @@
       <c r="B15" t="s">
         <v>67</v>
       </c>
+      <c r="C15" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1724,365 +1992,3773 @@
       <c r="B16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>82</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>83</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>85</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>86</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
       <c r="B22" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>90</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>91</v>
       </c>
       <c r="B24" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>92</v>
       </c>
       <c r="B25" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>93</v>
       </c>
       <c r="B26" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>94</v>
       </c>
       <c r="B27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>96</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>97</v>
       </c>
       <c r="B29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>98</v>
       </c>
       <c r="B30" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>99</v>
       </c>
       <c r="B31" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>100</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>101</v>
       </c>
       <c r="B33" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>102</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>103</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>104</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>105</v>
       </c>
       <c r="B37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>107</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>108</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>109</v>
       </c>
       <c r="B41" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>110</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>111</v>
       </c>
       <c r="B43" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>112</v>
       </c>
       <c r="B44" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>113</v>
       </c>
       <c r="B45" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>114</v>
       </c>
       <c r="B46" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>115</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>116</v>
       </c>
       <c r="B48" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>117</v>
       </c>
       <c r="B49" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>118</v>
       </c>
       <c r="B50" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>119</v>
       </c>
       <c r="B51" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>120</v>
       </c>
       <c r="B52" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>121</v>
       </c>
       <c r="B53" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>122</v>
       </c>
       <c r="B54" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>123</v>
       </c>
       <c r="B55" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>124</v>
       </c>
       <c r="B56" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>125</v>
       </c>
       <c r="B57" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>126</v>
       </c>
       <c r="B58" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>127</v>
       </c>
       <c r="B59" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>128</v>
       </c>
       <c r="B60" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>129</v>
       </c>
       <c r="B61" t="s">
         <v>74</v>
+      </c>
+      <c r="C61" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C61" xr:uid="{47136810-CA43-49F0-876E-38A7AE6E3CAB}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669AB6CA-5ACF-4189-A764-99C3547F87BA}">
+  <dimension ref="A1:AD36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="11">
+        <v>44837</v>
+      </c>
+      <c r="C1" s="11">
+        <f>+B1+1</f>
+        <v>44838</v>
+      </c>
+      <c r="D1" s="11">
+        <f t="shared" ref="D1:AD1" si="0">+C1+1</f>
+        <v>44839</v>
+      </c>
+      <c r="E1" s="11">
+        <f t="shared" si="0"/>
+        <v>44840</v>
+      </c>
+      <c r="F1" s="11">
+        <f t="shared" si="0"/>
+        <v>44841</v>
+      </c>
+      <c r="G1" s="11">
+        <f t="shared" si="0"/>
+        <v>44842</v>
+      </c>
+      <c r="H1" s="11">
+        <f t="shared" si="0"/>
+        <v>44843</v>
+      </c>
+      <c r="I1" s="11">
+        <f t="shared" si="0"/>
+        <v>44844</v>
+      </c>
+      <c r="J1" s="11">
+        <f t="shared" si="0"/>
+        <v>44845</v>
+      </c>
+      <c r="K1" s="11">
+        <f t="shared" si="0"/>
+        <v>44846</v>
+      </c>
+      <c r="L1" s="11">
+        <f t="shared" si="0"/>
+        <v>44847</v>
+      </c>
+      <c r="M1" s="11">
+        <f t="shared" si="0"/>
+        <v>44848</v>
+      </c>
+      <c r="N1" s="11">
+        <f t="shared" si="0"/>
+        <v>44849</v>
+      </c>
+      <c r="O1" s="11">
+        <f t="shared" si="0"/>
+        <v>44850</v>
+      </c>
+      <c r="P1" s="11">
+        <f t="shared" si="0"/>
+        <v>44851</v>
+      </c>
+      <c r="Q1" s="11">
+        <f t="shared" si="0"/>
+        <v>44852</v>
+      </c>
+      <c r="R1" s="11">
+        <f t="shared" si="0"/>
+        <v>44853</v>
+      </c>
+      <c r="S1" s="11">
+        <f t="shared" si="0"/>
+        <v>44854</v>
+      </c>
+      <c r="T1" s="11">
+        <f t="shared" si="0"/>
+        <v>44855</v>
+      </c>
+      <c r="U1" s="11">
+        <f t="shared" si="0"/>
+        <v>44856</v>
+      </c>
+      <c r="V1" s="11">
+        <f t="shared" si="0"/>
+        <v>44857</v>
+      </c>
+      <c r="W1" s="11">
+        <f t="shared" si="0"/>
+        <v>44858</v>
+      </c>
+      <c r="X1" s="11">
+        <f t="shared" si="0"/>
+        <v>44859</v>
+      </c>
+      <c r="Y1" s="11">
+        <f t="shared" si="0"/>
+        <v>44860</v>
+      </c>
+      <c r="Z1" s="11">
+        <f t="shared" si="0"/>
+        <v>44861</v>
+      </c>
+      <c r="AA1" s="11">
+        <f t="shared" si="0"/>
+        <v>44862</v>
+      </c>
+      <c r="AB1" s="11">
+        <f t="shared" si="0"/>
+        <v>44863</v>
+      </c>
+      <c r="AC1" s="11">
+        <f t="shared" si="0"/>
+        <v>44864</v>
+      </c>
+      <c r="AD1" s="11">
+        <f t="shared" si="0"/>
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U2" t="s">
+        <v>144</v>
+      </c>
+      <c r="V2" t="s">
+        <v>142</v>
+      </c>
+      <c r="W2" t="s">
+        <v>140</v>
+      </c>
+      <c r="X2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>142</v>
+      </c>
+      <c r="R3" t="s">
+        <v>143</v>
+      </c>
+      <c r="S3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U3" t="s">
+        <v>140</v>
+      </c>
+      <c r="V3" t="s">
+        <v>140</v>
+      </c>
+      <c r="W3" t="s">
+        <v>143</v>
+      </c>
+      <c r="X3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" t="s">
+        <v>140</v>
+      </c>
+      <c r="O4" t="s">
+        <v>140</v>
+      </c>
+      <c r="P4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>147</v>
+      </c>
+      <c r="R4" t="s">
+        <v>143</v>
+      </c>
+      <c r="S4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T4" t="s">
+        <v>140</v>
+      </c>
+      <c r="U4" t="s">
+        <v>140</v>
+      </c>
+      <c r="V4" t="s">
+        <v>140</v>
+      </c>
+      <c r="W4" t="s">
+        <v>147</v>
+      </c>
+      <c r="X4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5" t="s">
+        <v>144</v>
+      </c>
+      <c r="N5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>143</v>
+      </c>
+      <c r="R5" t="s">
+        <v>140</v>
+      </c>
+      <c r="S5" t="s">
+        <v>140</v>
+      </c>
+      <c r="T5" t="s">
+        <v>144</v>
+      </c>
+      <c r="U5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V5" t="s">
+        <v>141</v>
+      </c>
+      <c r="W5" t="s">
+        <v>142</v>
+      </c>
+      <c r="X5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L6" t="s">
+        <v>143</v>
+      </c>
+      <c r="M6" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" t="s">
+        <v>141</v>
+      </c>
+      <c r="O6" t="s">
+        <v>144</v>
+      </c>
+      <c r="P6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>140</v>
+      </c>
+      <c r="R6" t="s">
+        <v>142</v>
+      </c>
+      <c r="S6" t="s">
+        <v>143</v>
+      </c>
+      <c r="T6" t="s">
+        <v>140</v>
+      </c>
+      <c r="U6" t="s">
+        <v>141</v>
+      </c>
+      <c r="V6" t="s">
+        <v>144</v>
+      </c>
+      <c r="W6" t="s">
+        <v>144</v>
+      </c>
+      <c r="X6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" t="s">
+        <v>140</v>
+      </c>
+      <c r="O7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>141</v>
+      </c>
+      <c r="R7" t="s">
+        <v>140</v>
+      </c>
+      <c r="S7" t="s">
+        <v>142</v>
+      </c>
+      <c r="T7" t="s">
+        <v>143</v>
+      </c>
+      <c r="U7" t="s">
+        <v>140</v>
+      </c>
+      <c r="V7" t="s">
+        <v>140</v>
+      </c>
+      <c r="W7" t="s">
+        <v>143</v>
+      </c>
+      <c r="X7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" t="s">
+        <v>140</v>
+      </c>
+      <c r="N8" t="s">
+        <v>141</v>
+      </c>
+      <c r="O8" t="s">
+        <v>141</v>
+      </c>
+      <c r="P8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>143</v>
+      </c>
+      <c r="R8" t="s">
+        <v>143</v>
+      </c>
+      <c r="S8" t="s">
+        <v>140</v>
+      </c>
+      <c r="T8" t="s">
+        <v>140</v>
+      </c>
+      <c r="U8" t="s">
+        <v>141</v>
+      </c>
+      <c r="V8" t="s">
+        <v>141</v>
+      </c>
+      <c r="W8" t="s">
+        <v>140</v>
+      </c>
+      <c r="X8" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" t="s">
+        <v>140</v>
+      </c>
+      <c r="L9" t="s">
+        <v>143</v>
+      </c>
+      <c r="M9" t="s">
+        <v>140</v>
+      </c>
+      <c r="N9" t="s">
+        <v>141</v>
+      </c>
+      <c r="O9" t="s">
+        <v>142</v>
+      </c>
+      <c r="P9" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>144</v>
+      </c>
+      <c r="R9" t="s">
+        <v>140</v>
+      </c>
+      <c r="S9" t="s">
+        <v>143</v>
+      </c>
+      <c r="T9" t="s">
+        <v>140</v>
+      </c>
+      <c r="U9" t="s">
+        <v>141</v>
+      </c>
+      <c r="V9" t="s">
+        <v>142</v>
+      </c>
+      <c r="W9" t="s">
+        <v>140</v>
+      </c>
+      <c r="X9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" t="s">
+        <v>143</v>
+      </c>
+      <c r="M10" t="s">
+        <v>141</v>
+      </c>
+      <c r="N10" t="s">
+        <v>143</v>
+      </c>
+      <c r="O10" t="s">
+        <v>144</v>
+      </c>
+      <c r="P10" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>140</v>
+      </c>
+      <c r="R10" t="s">
+        <v>142</v>
+      </c>
+      <c r="S10" t="s">
+        <v>143</v>
+      </c>
+      <c r="T10" t="s">
+        <v>141</v>
+      </c>
+      <c r="U10" t="s">
+        <v>143</v>
+      </c>
+      <c r="V10" t="s">
+        <v>144</v>
+      </c>
+      <c r="W10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X10" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" t="s">
+        <v>141</v>
+      </c>
+      <c r="L11" t="s">
+        <v>140</v>
+      </c>
+      <c r="M11" t="s">
+        <v>140</v>
+      </c>
+      <c r="N11" t="s">
+        <v>140</v>
+      </c>
+      <c r="O11" t="s">
+        <v>143</v>
+      </c>
+      <c r="P11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>140</v>
+      </c>
+      <c r="R11" t="s">
+        <v>141</v>
+      </c>
+      <c r="S11" t="s">
+        <v>140</v>
+      </c>
+      <c r="T11" t="s">
+        <v>140</v>
+      </c>
+      <c r="U11" t="s">
+        <v>140</v>
+      </c>
+      <c r="V11" t="s">
+        <v>143</v>
+      </c>
+      <c r="W11" t="s">
+        <v>140</v>
+      </c>
+      <c r="X11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J12" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" t="s">
+        <v>144</v>
+      </c>
+      <c r="L12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" t="s">
+        <v>142</v>
+      </c>
+      <c r="N12" t="s">
+        <v>156</v>
+      </c>
+      <c r="O12" t="s">
+        <v>156</v>
+      </c>
+      <c r="P12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>143</v>
+      </c>
+      <c r="R12" t="s">
+        <v>144</v>
+      </c>
+      <c r="S12" t="s">
+        <v>144</v>
+      </c>
+      <c r="T12" t="s">
+        <v>142</v>
+      </c>
+      <c r="U12" t="s">
+        <v>156</v>
+      </c>
+      <c r="V12" t="s">
+        <v>156</v>
+      </c>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="s">
+        <v>144</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>142</v>
+      </c>
+      <c r="R13" t="s">
+        <v>143</v>
+      </c>
+      <c r="S13" t="s">
+        <v>140</v>
+      </c>
+      <c r="T13" t="s">
+        <v>144</v>
+      </c>
+      <c r="U13" t="s">
+        <v>144</v>
+      </c>
+      <c r="V13" t="s">
+        <v>143</v>
+      </c>
+      <c r="W13" t="s">
+        <v>143</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="s">
+        <v>143</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>140</v>
+      </c>
+      <c r="P14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>140</v>
+      </c>
+      <c r="R14" t="s">
+        <v>142</v>
+      </c>
+      <c r="S14" t="s">
+        <v>143</v>
+      </c>
+      <c r="T14" t="s">
+        <v>143</v>
+      </c>
+      <c r="U14" t="s">
+        <v>140</v>
+      </c>
+      <c r="V14" t="s">
+        <v>140</v>
+      </c>
+      <c r="W14" t="s">
+        <v>141</v>
+      </c>
+      <c r="X14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s">
+        <v>143</v>
+      </c>
+      <c r="P15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>140</v>
+      </c>
+      <c r="R15" t="s">
+        <v>141</v>
+      </c>
+      <c r="S15" t="s">
+        <v>140</v>
+      </c>
+      <c r="T15" t="s">
+        <v>143</v>
+      </c>
+      <c r="U15" t="s">
+        <v>143</v>
+      </c>
+      <c r="V15" t="s">
+        <v>143</v>
+      </c>
+      <c r="W15" t="s">
+        <v>140</v>
+      </c>
+      <c r="X15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="s">
+        <v>143</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>140</v>
+      </c>
+      <c r="P16" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>140</v>
+      </c>
+      <c r="R16" t="s">
+        <v>144</v>
+      </c>
+      <c r="S16" t="s">
+        <v>142</v>
+      </c>
+      <c r="T16" t="s">
+        <v>143</v>
+      </c>
+      <c r="U16" t="s">
+        <v>144</v>
+      </c>
+      <c r="V16" t="s">
+        <v>140</v>
+      </c>
+      <c r="W16" t="s">
+        <v>141</v>
+      </c>
+      <c r="X16" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="s">
+        <v>143</v>
+      </c>
+      <c r="N17" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" t="s">
+        <v>144</v>
+      </c>
+      <c r="P17" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>144</v>
+      </c>
+      <c r="R17" t="s">
+        <v>141</v>
+      </c>
+      <c r="S17" t="s">
+        <v>142</v>
+      </c>
+      <c r="T17" t="s">
+        <v>143</v>
+      </c>
+      <c r="U17" t="s">
+        <v>140</v>
+      </c>
+      <c r="V17" t="s">
+        <v>144</v>
+      </c>
+      <c r="W17" t="s">
+        <v>140</v>
+      </c>
+      <c r="X17" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M18" t="s">
+        <v>142</v>
+      </c>
+      <c r="N18" t="s">
+        <v>143</v>
+      </c>
+      <c r="O18" t="s">
+        <v>140</v>
+      </c>
+      <c r="P18" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>140</v>
+      </c>
+      <c r="R18" t="s">
+        <v>144</v>
+      </c>
+      <c r="S18" t="s">
+        <v>141</v>
+      </c>
+      <c r="T18" t="s">
+        <v>142</v>
+      </c>
+      <c r="U18" t="s">
+        <v>143</v>
+      </c>
+      <c r="V18" t="s">
+        <v>140</v>
+      </c>
+      <c r="W18" t="s">
+        <v>143</v>
+      </c>
+      <c r="X18" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L19" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19" t="s">
+        <v>141</v>
+      </c>
+      <c r="N19" t="s">
+        <v>142</v>
+      </c>
+      <c r="O19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P19" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>140</v>
+      </c>
+      <c r="R19" t="s">
+        <v>143</v>
+      </c>
+      <c r="S19" t="s">
+        <v>140</v>
+      </c>
+      <c r="T19" t="s">
+        <v>141</v>
+      </c>
+      <c r="U19" t="s">
+        <v>142</v>
+      </c>
+      <c r="V19" t="s">
+        <v>143</v>
+      </c>
+      <c r="W19" t="s">
+        <v>140</v>
+      </c>
+      <c r="X19" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" t="s">
+        <v>141</v>
+      </c>
+      <c r="J20" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" t="s">
+        <v>140</v>
+      </c>
+      <c r="L20" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" t="s">
+        <v>142</v>
+      </c>
+      <c r="N20" t="s">
+        <v>143</v>
+      </c>
+      <c r="O20" t="s">
+        <v>142</v>
+      </c>
+      <c r="P20" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>143</v>
+      </c>
+      <c r="R20" t="s">
+        <v>140</v>
+      </c>
+      <c r="S20" t="s">
+        <v>144</v>
+      </c>
+      <c r="T20" t="s">
+        <v>142</v>
+      </c>
+      <c r="U20" t="s">
+        <v>143</v>
+      </c>
+      <c r="V20" t="s">
+        <v>142</v>
+      </c>
+      <c r="W20" t="s">
+        <v>141</v>
+      </c>
+      <c r="X20" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" t="s">
+        <v>144</v>
+      </c>
+      <c r="J21" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" t="s">
+        <v>141</v>
+      </c>
+      <c r="L21" t="s">
+        <v>144</v>
+      </c>
+      <c r="M21" t="s">
+        <v>144</v>
+      </c>
+      <c r="N21" t="s">
+        <v>142</v>
+      </c>
+      <c r="O21" t="s">
+        <v>143</v>
+      </c>
+      <c r="P21" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>143</v>
+      </c>
+      <c r="R21" t="s">
+        <v>141</v>
+      </c>
+      <c r="S21" t="s">
+        <v>144</v>
+      </c>
+      <c r="T21" t="s">
+        <v>144</v>
+      </c>
+      <c r="U21" t="s">
+        <v>142</v>
+      </c>
+      <c r="V21" t="s">
+        <v>143</v>
+      </c>
+      <c r="W21" t="s">
+        <v>144</v>
+      </c>
+      <c r="X21" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" t="s">
+        <v>140</v>
+      </c>
+      <c r="J22" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" t="s">
+        <v>141</v>
+      </c>
+      <c r="M22" t="s">
+        <v>143</v>
+      </c>
+      <c r="N22" t="s">
+        <v>142</v>
+      </c>
+      <c r="O22" t="s">
+        <v>143</v>
+      </c>
+      <c r="P22" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>143</v>
+      </c>
+      <c r="R22" t="s">
+        <v>140</v>
+      </c>
+      <c r="S22" t="s">
+        <v>141</v>
+      </c>
+      <c r="T22" t="s">
+        <v>143</v>
+      </c>
+      <c r="U22" t="s">
+        <v>142</v>
+      </c>
+      <c r="V22" t="s">
+        <v>143</v>
+      </c>
+      <c r="W22" t="s">
+        <v>140</v>
+      </c>
+      <c r="X22" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23" t="s">
+        <v>141</v>
+      </c>
+      <c r="L23" t="s">
+        <v>143</v>
+      </c>
+      <c r="M23" t="s">
+        <v>140</v>
+      </c>
+      <c r="N23" t="s">
+        <v>140</v>
+      </c>
+      <c r="O23" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>142</v>
+      </c>
+      <c r="R23" t="s">
+        <v>141</v>
+      </c>
+      <c r="S23" t="s">
+        <v>143</v>
+      </c>
+      <c r="T23" t="s">
+        <v>140</v>
+      </c>
+      <c r="U23" t="s">
+        <v>140</v>
+      </c>
+      <c r="V23" t="s">
+        <v>140</v>
+      </c>
+      <c r="W23" t="s">
+        <v>144</v>
+      </c>
+      <c r="X23" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" t="s">
+        <v>144</v>
+      </c>
+      <c r="K24" t="s">
+        <v>140</v>
+      </c>
+      <c r="L24" t="s">
+        <v>142</v>
+      </c>
+      <c r="M24" t="s">
+        <v>143</v>
+      </c>
+      <c r="N24" t="s">
+        <v>140</v>
+      </c>
+      <c r="O24" t="s">
+        <v>141</v>
+      </c>
+      <c r="P24" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>144</v>
+      </c>
+      <c r="R24" t="s">
+        <v>140</v>
+      </c>
+      <c r="S24" t="s">
+        <v>142</v>
+      </c>
+      <c r="T24" t="s">
+        <v>143</v>
+      </c>
+      <c r="U24" t="s">
+        <v>140</v>
+      </c>
+      <c r="V24" t="s">
+        <v>141</v>
+      </c>
+      <c r="W24" t="s">
+        <v>143</v>
+      </c>
+      <c r="X24" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25" t="s">
+        <v>140</v>
+      </c>
+      <c r="J25" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" t="s">
+        <v>142</v>
+      </c>
+      <c r="M25" t="s">
+        <v>143</v>
+      </c>
+      <c r="N25" t="s">
+        <v>143</v>
+      </c>
+      <c r="O25" t="s">
+        <v>141</v>
+      </c>
+      <c r="P25" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>140</v>
+      </c>
+      <c r="R25" t="s">
+        <v>143</v>
+      </c>
+      <c r="S25" t="s">
+        <v>142</v>
+      </c>
+      <c r="T25" t="s">
+        <v>143</v>
+      </c>
+      <c r="U25" t="s">
+        <v>143</v>
+      </c>
+      <c r="V25" t="s">
+        <v>141</v>
+      </c>
+      <c r="W25" t="s">
+        <v>140</v>
+      </c>
+      <c r="X25" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" t="s">
+        <v>141</v>
+      </c>
+      <c r="J26" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" t="s">
+        <v>143</v>
+      </c>
+      <c r="L26" t="s">
+        <v>140</v>
+      </c>
+      <c r="M26" t="s">
+        <v>144</v>
+      </c>
+      <c r="N26" t="s">
+        <v>144</v>
+      </c>
+      <c r="O26" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>142</v>
+      </c>
+      <c r="R26" t="s">
+        <v>143</v>
+      </c>
+      <c r="S26" t="s">
+        <v>140</v>
+      </c>
+      <c r="T26" t="s">
+        <v>144</v>
+      </c>
+      <c r="U26" t="s">
+        <v>144</v>
+      </c>
+      <c r="V26" t="s">
+        <v>143</v>
+      </c>
+      <c r="W26" t="s">
+        <v>141</v>
+      </c>
+      <c r="X26" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28" t="s">
+        <v>140</v>
+      </c>
+      <c r="J28" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" t="s">
+        <v>143</v>
+      </c>
+      <c r="L28" t="s">
+        <v>143</v>
+      </c>
+      <c r="M28" t="s">
+        <v>140</v>
+      </c>
+      <c r="N28" t="s">
+        <v>141</v>
+      </c>
+      <c r="O28" t="s">
+        <v>142</v>
+      </c>
+      <c r="P28" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>144</v>
+      </c>
+      <c r="R28" t="s">
+        <v>143</v>
+      </c>
+      <c r="S28" t="s">
+        <v>143</v>
+      </c>
+      <c r="T28" t="s">
+        <v>140</v>
+      </c>
+      <c r="U28" t="s">
+        <v>141</v>
+      </c>
+      <c r="V28" t="s">
+        <v>142</v>
+      </c>
+      <c r="W28" t="s">
+        <v>140</v>
+      </c>
+      <c r="X28" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I29" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" t="s">
+        <v>147</v>
+      </c>
+      <c r="K29" t="s">
+        <v>147</v>
+      </c>
+      <c r="L29" t="s">
+        <v>140</v>
+      </c>
+      <c r="M29" t="s">
+        <v>143</v>
+      </c>
+      <c r="N29" t="s">
+        <v>143</v>
+      </c>
+      <c r="O29" t="s">
+        <v>143</v>
+      </c>
+      <c r="P29" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>147</v>
+      </c>
+      <c r="R29" t="s">
+        <v>147</v>
+      </c>
+      <c r="S29" t="s">
+        <v>140</v>
+      </c>
+      <c r="T29" t="s">
+        <v>143</v>
+      </c>
+      <c r="U29" t="s">
+        <v>143</v>
+      </c>
+      <c r="V29" t="s">
+        <v>143</v>
+      </c>
+      <c r="W29" t="s">
+        <v>147</v>
+      </c>
+      <c r="X29" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30" t="s">
+        <v>141</v>
+      </c>
+      <c r="L30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M30" t="s">
+        <v>142</v>
+      </c>
+      <c r="N30" t="s">
+        <v>142</v>
+      </c>
+      <c r="O30" t="s">
+        <v>143</v>
+      </c>
+      <c r="P30" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>143</v>
+      </c>
+      <c r="R30" t="s">
+        <v>141</v>
+      </c>
+      <c r="S30" t="s">
+        <v>140</v>
+      </c>
+      <c r="T30" t="s">
+        <v>142</v>
+      </c>
+      <c r="U30" t="s">
+        <v>142</v>
+      </c>
+      <c r="V30" t="s">
+        <v>143</v>
+      </c>
+      <c r="W30" t="s">
+        <v>143</v>
+      </c>
+      <c r="X30" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31" t="s">
+        <v>141</v>
+      </c>
+      <c r="K31" t="s">
+        <v>143</v>
+      </c>
+      <c r="L31" t="s">
+        <v>143</v>
+      </c>
+      <c r="M31" t="s">
+        <v>140</v>
+      </c>
+      <c r="N31" t="s">
+        <v>143</v>
+      </c>
+      <c r="O31" t="s">
+        <v>140</v>
+      </c>
+      <c r="P31" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>141</v>
+      </c>
+      <c r="R31" t="s">
+        <v>143</v>
+      </c>
+      <c r="S31" t="s">
+        <v>143</v>
+      </c>
+      <c r="T31" t="s">
+        <v>140</v>
+      </c>
+      <c r="U31" t="s">
+        <v>143</v>
+      </c>
+      <c r="V31" t="s">
+        <v>140</v>
+      </c>
+      <c r="W31" t="s">
+        <v>142</v>
+      </c>
+      <c r="X31" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" t="s">
+        <v>140</v>
+      </c>
+      <c r="I32" t="s">
+        <v>141</v>
+      </c>
+      <c r="J32" t="s">
+        <v>143</v>
+      </c>
+      <c r="K32" t="s">
+        <v>142</v>
+      </c>
+      <c r="L32" t="s">
+        <v>143</v>
+      </c>
+      <c r="M32" t="s">
+        <v>140</v>
+      </c>
+      <c r="N32" t="s">
+        <v>144</v>
+      </c>
+      <c r="O32" t="s">
+        <v>140</v>
+      </c>
+      <c r="P32" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>143</v>
+      </c>
+      <c r="R32" t="s">
+        <v>142</v>
+      </c>
+      <c r="S32" t="s">
+        <v>143</v>
+      </c>
+      <c r="T32" t="s">
+        <v>140</v>
+      </c>
+      <c r="U32" t="s">
+        <v>144</v>
+      </c>
+      <c r="V32" t="s">
+        <v>140</v>
+      </c>
+      <c r="W32" t="s">
+        <v>141</v>
+      </c>
+      <c r="X32" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" t="s">
+        <v>142</v>
+      </c>
+      <c r="J33" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" t="s">
+        <v>140</v>
+      </c>
+      <c r="L33" t="s">
+        <v>144</v>
+      </c>
+      <c r="M33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N33" t="s">
+        <v>143</v>
+      </c>
+      <c r="O33" t="s">
+        <v>144</v>
+      </c>
+      <c r="P33" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>143</v>
+      </c>
+      <c r="R33" t="s">
+        <v>140</v>
+      </c>
+      <c r="S33" t="s">
+        <v>144</v>
+      </c>
+      <c r="T33" t="s">
+        <v>141</v>
+      </c>
+      <c r="U33" t="s">
+        <v>143</v>
+      </c>
+      <c r="V33" t="s">
+        <v>144</v>
+      </c>
+      <c r="W33" t="s">
+        <v>142</v>
+      </c>
+      <c r="X33" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" t="s">
+        <v>143</v>
+      </c>
+      <c r="I34" t="s">
+        <v>140</v>
+      </c>
+      <c r="J34" t="s">
+        <v>140</v>
+      </c>
+      <c r="K34" t="s">
+        <v>144</v>
+      </c>
+      <c r="L34" t="s">
+        <v>143</v>
+      </c>
+      <c r="M34" t="s">
+        <v>142</v>
+      </c>
+      <c r="N34" t="s">
+        <v>141</v>
+      </c>
+      <c r="O34" t="s">
+        <v>143</v>
+      </c>
+      <c r="P34" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>140</v>
+      </c>
+      <c r="R34" t="s">
+        <v>144</v>
+      </c>
+      <c r="S34" t="s">
+        <v>143</v>
+      </c>
+      <c r="T34" t="s">
+        <v>142</v>
+      </c>
+      <c r="U34" t="s">
+        <v>141</v>
+      </c>
+      <c r="V34" t="s">
+        <v>143</v>
+      </c>
+      <c r="W34" t="s">
+        <v>140</v>
+      </c>
+      <c r="X34" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" t="s">
+        <v>144</v>
+      </c>
+      <c r="J35" t="s">
+        <v>143</v>
+      </c>
+      <c r="K35" t="s">
+        <v>143</v>
+      </c>
+      <c r="L35" t="s">
+        <v>141</v>
+      </c>
+      <c r="M35" t="s">
+        <v>143</v>
+      </c>
+      <c r="N35" t="s">
+        <v>140</v>
+      </c>
+      <c r="O35" t="s">
+        <v>140</v>
+      </c>
+      <c r="P35" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>143</v>
+      </c>
+      <c r="R35" t="s">
+        <v>143</v>
+      </c>
+      <c r="S35" t="s">
+        <v>141</v>
+      </c>
+      <c r="T35" t="s">
+        <v>143</v>
+      </c>
+      <c r="U35" t="s">
+        <v>140</v>
+      </c>
+      <c r="V35" t="s">
+        <v>140</v>
+      </c>
+      <c r="W35" t="s">
+        <v>144</v>
+      </c>
+      <c r="X35" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" t="s">
+        <v>140</v>
+      </c>
+      <c r="J36" t="s">
+        <v>141</v>
+      </c>
+      <c r="K36" t="s">
+        <v>143</v>
+      </c>
+      <c r="L36" t="s">
+        <v>140</v>
+      </c>
+      <c r="M36" t="s">
+        <v>144</v>
+      </c>
+      <c r="N36" t="s">
+        <v>142</v>
+      </c>
+      <c r="O36" t="s">
+        <v>143</v>
+      </c>
+      <c r="P36" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>141</v>
+      </c>
+      <c r="R36" t="s">
+        <v>143</v>
+      </c>
+      <c r="S36" t="s">
+        <v>140</v>
+      </c>
+      <c r="T36" t="s">
+        <v>144</v>
+      </c>
+      <c r="U36" t="s">
+        <v>142</v>
+      </c>
+      <c r="V36" t="s">
+        <v>143</v>
+      </c>
+      <c r="W36" t="s">
+        <v>140</v>
+      </c>
+      <c r="X36" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2090,7 +5766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422D0D3-FE55-49B8-A15F-655B8CC8A4E0}">
   <dimension ref="A1:B4"/>
   <sheetViews>

--- a/parametros_control/Parametros.xlsx
+++ b/parametros_control/Parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Z_Proyectos\control_GPS\parametros_control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3911B2D3-2364-493B-9EFE-C3608FEACE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD81D7F-C79C-46BE-977D-429FA8E7C55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARAMETROS" sheetId="1" r:id="rId1"/>
@@ -453,12 +453,6 @@
     <t>Conductor</t>
   </si>
   <si>
-    <t>Z:\13 Auxadmin\control_GPS\control</t>
-  </si>
-  <si>
-    <t>Z:\13 Auxadmin\control_GPS\reportes\Trip report(20221117-20221117).xlsx</t>
-  </si>
-  <si>
     <t>CONDUCTOR</t>
   </si>
   <si>
@@ -607,6 +601,12 @@
   </si>
   <si>
     <t>Acopio</t>
+  </si>
+  <si>
+    <t>C:\Z_Proyectos\control_GPS\reportes\Reporte de viaje(20221127-20221127).xlsx</t>
+  </si>
+  <si>
+    <t>C:\Z_Proyectos\control_GPS\control</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -981,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1009,7 +1009,7 @@
         <v>130</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
         <v>133</v>
@@ -1020,7 +1020,7 @@
         <v>131</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
         <v>132</v>
@@ -1035,7 +1035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D58D0E3-E8F1-420F-9019-042E5BD1C01E}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1058,7 +1060,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1839,7 +1841,7 @@
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1850,7 +1852,7 @@
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1861,7 +1863,7 @@
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1872,7 +1874,7 @@
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1883,7 +1885,7 @@
         <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1894,7 +1896,7 @@
         <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1905,7 +1907,7 @@
         <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1916,7 +1918,7 @@
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1927,7 +1929,7 @@
         <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1938,7 +1940,7 @@
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1949,7 +1951,7 @@
         <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1960,7 +1962,7 @@
         <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1971,7 +1973,7 @@
         <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1982,7 +1984,7 @@
         <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1993,7 +1995,7 @@
         <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2004,7 +2006,7 @@
         <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2015,7 +2017,7 @@
         <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2026,7 +2028,7 @@
         <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2037,7 +2039,7 @@
         <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2048,7 +2050,7 @@
         <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2059,7 +2061,7 @@
         <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2070,7 +2072,7 @@
         <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2081,7 +2083,7 @@
         <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2092,7 +2094,7 @@
         <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2103,7 +2105,7 @@
         <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2114,7 +2116,7 @@
         <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2125,7 +2127,7 @@
         <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2136,7 +2138,7 @@
         <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2147,7 +2149,7 @@
         <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2158,7 +2160,7 @@
         <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2169,7 +2171,7 @@
         <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2180,7 +2182,7 @@
         <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2191,7 +2193,7 @@
         <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2202,7 +2204,7 @@
         <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2213,7 +2215,7 @@
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2224,7 +2226,7 @@
         <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2235,7 +2237,7 @@
         <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2246,7 +2248,7 @@
         <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2257,7 +2259,7 @@
         <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2268,7 +2270,7 @@
         <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2279,7 +2281,7 @@
         <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2290,7 +2292,7 @@
         <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2301,7 +2303,7 @@
         <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2312,7 +2314,7 @@
         <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2323,7 +2325,7 @@
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2334,7 +2336,7 @@
         <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2345,7 +2347,7 @@
         <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2356,7 +2358,7 @@
         <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2367,7 +2369,7 @@
         <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2378,7 +2380,7 @@
         <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2389,7 +2391,7 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2400,7 +2402,7 @@
         <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2411,7 +2413,7 @@
         <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2422,7 +2424,7 @@
         <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2433,7 +2435,7 @@
         <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2444,7 +2446,7 @@
         <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2455,7 +2457,7 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2466,7 +2468,7 @@
         <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2477,7 +2479,7 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2488,7 +2490,7 @@
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2510,7 +2512,7 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="11">
         <v>44837</v>
@@ -2630,3135 +2632,3135 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="V2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Y2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Z2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AB2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AC2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AD2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="R3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Y3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AA3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AB3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AD3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="X4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Y4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AB4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AD4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="X5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AB5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AD5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Z6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AB6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AC6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AD6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Y7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AA7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AB7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AD7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AB8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AC8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AD8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Y9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AB9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AC9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AD9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="U10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Z10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AB10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AC10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AD10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="S11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="W11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AB11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AD11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Z12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AA12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AB12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AC12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AD12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="R13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="V13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="W13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AB13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AC13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AD13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="X14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Z14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AB14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AD14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="S15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="W15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AB15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AC15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AD15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="V16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="X16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Z16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AA16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AB16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AC16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AD16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="S17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Y17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AA17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AB17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AD17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Z18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AA18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AB18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AC18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AD18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="U19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="W19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AB19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AC19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AD19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="X20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AA20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AB20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AC20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AD20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="S21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="W21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AA21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AB21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AC21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AD21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="W22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AA22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AB22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AC22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AD22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="R23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="S23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Y23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AB23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AD23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Y24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AA24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AB24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AD24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AA25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AB25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AC25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AD25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="R26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="V26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="W26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="X26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Y26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AB26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AC26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AD26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Y28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AB28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AC28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AD28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="S29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="W29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="X29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Y29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Z29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AB29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AC29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AD29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="S30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="W30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AB30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AC30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AD30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="X31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Y31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AB31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AC31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AD31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="V32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="X32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Z32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AB32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AC32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AD32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="U33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="X33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AA33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AB33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AC33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AD33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="W34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Z34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AB34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AC34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AD34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AA35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AB35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AD35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="W36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Y36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AA36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AB36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AC36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AD36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/parametros_control/Parametros.xlsx
+++ b/parametros_control/Parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Z_Proyectos\control_GPS\parametros_control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD81D7F-C79C-46BE-977D-429FA8E7C55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6500542-4F3F-4D1C-BF73-CE6ECE1C7A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="187">
   <si>
     <t>Parámetro</t>
   </si>
@@ -453,9 +453,6 @@
     <t>Conductor</t>
   </si>
   <si>
-    <t>CONDUCTOR</t>
-  </si>
-  <si>
     <t>ALBERTO BEDOYA</t>
   </si>
   <si>
@@ -603,10 +600,10 @@
     <t>Acopio</t>
   </si>
   <si>
-    <t>C:\Z_Proyectos\control_GPS\reportes\Reporte de viaje(20221127-20221127).xlsx</t>
-  </si>
-  <si>
     <t>C:\Z_Proyectos\control_GPS\control</t>
+  </si>
+  <si>
+    <t>C:\Z_Proyectos\control_GPS\reportes\Trip report(20221116-20221116).xlsx</t>
   </si>
 </sst>
 </file>
@@ -981,9 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1020,7 +1015,7 @@
         <v>131</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
         <v>132</v>
@@ -1060,7 +1055,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1811,9 +1806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47136810-CA43-49F0-876E-38A7AE6E3CAB}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1841,7 +1834,7 @@
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1852,7 +1845,7 @@
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1863,7 +1856,7 @@
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1874,7 +1867,7 @@
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1885,7 +1878,7 @@
         <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1896,7 +1889,7 @@
         <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1907,7 +1900,7 @@
         <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1918,7 +1911,7 @@
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1929,7 +1922,7 @@
         <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1940,7 +1933,7 @@
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1951,7 +1944,7 @@
         <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1962,7 +1955,7 @@
         <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1973,7 +1966,7 @@
         <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1984,7 +1977,7 @@
         <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1995,7 +1988,7 @@
         <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2006,7 +1999,7 @@
         <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2017,7 +2010,7 @@
         <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2028,7 +2021,7 @@
         <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2039,7 +2032,7 @@
         <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2050,7 +2043,7 @@
         <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2061,7 +2054,7 @@
         <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2072,7 +2065,7 @@
         <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2083,7 +2076,7 @@
         <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2094,7 +2087,7 @@
         <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2105,7 +2098,7 @@
         <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2116,7 +2109,7 @@
         <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2127,7 +2120,7 @@
         <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2138,7 +2131,7 @@
         <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2149,7 +2142,7 @@
         <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2160,7 +2153,7 @@
         <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2171,7 +2164,7 @@
         <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2182,7 +2175,7 @@
         <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2193,7 +2186,7 @@
         <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2204,7 +2197,7 @@
         <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2215,7 +2208,7 @@
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2226,7 +2219,7 @@
         <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2237,7 +2230,7 @@
         <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2248,7 +2241,7 @@
         <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2259,7 +2252,7 @@
         <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2270,7 +2263,7 @@
         <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2281,7 +2274,7 @@
         <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2292,7 +2285,7 @@
         <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2303,7 +2296,7 @@
         <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2314,7 +2307,7 @@
         <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2325,7 +2318,7 @@
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2336,7 +2329,7 @@
         <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2347,7 +2340,7 @@
         <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2358,7 +2351,7 @@
         <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2369,7 +2362,7 @@
         <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2380,7 +2373,7 @@
         <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2391,7 +2384,7 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2402,7 +2395,7 @@
         <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2413,7 +2406,7 @@
         <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2424,7 +2417,7 @@
         <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2435,7 +2428,7 @@
         <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2446,7 +2439,7 @@
         <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2457,7 +2450,7 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2468,7 +2461,7 @@
         <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2479,7 +2472,7 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2490,7 +2483,7 @@
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2503,7 +2496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669AB6CA-5ACF-4189-A764-99C3547F87BA}">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2512,3255 +2507,3255 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="11">
-        <v>44837</v>
+        <v>44866</v>
       </c>
       <c r="C1" s="11">
         <f>+B1+1</f>
-        <v>44838</v>
+        <v>44867</v>
       </c>
       <c r="D1" s="11">
         <f t="shared" ref="D1:AD1" si="0">+C1+1</f>
-        <v>44839</v>
+        <v>44868</v>
       </c>
       <c r="E1" s="11">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>44869</v>
       </c>
       <c r="F1" s="11">
         <f t="shared" si="0"/>
-        <v>44841</v>
+        <v>44870</v>
       </c>
       <c r="G1" s="11">
         <f t="shared" si="0"/>
-        <v>44842</v>
+        <v>44871</v>
       </c>
       <c r="H1" s="11">
         <f t="shared" si="0"/>
-        <v>44843</v>
+        <v>44872</v>
       </c>
       <c r="I1" s="11">
         <f t="shared" si="0"/>
-        <v>44844</v>
+        <v>44873</v>
       </c>
       <c r="J1" s="11">
         <f t="shared" si="0"/>
-        <v>44845</v>
+        <v>44874</v>
       </c>
       <c r="K1" s="11">
         <f t="shared" si="0"/>
-        <v>44846</v>
+        <v>44875</v>
       </c>
       <c r="L1" s="11">
         <f t="shared" si="0"/>
-        <v>44847</v>
+        <v>44876</v>
       </c>
       <c r="M1" s="11">
         <f t="shared" si="0"/>
-        <v>44848</v>
+        <v>44877</v>
       </c>
       <c r="N1" s="11">
         <f t="shared" si="0"/>
-        <v>44849</v>
+        <v>44878</v>
       </c>
       <c r="O1" s="11">
         <f t="shared" si="0"/>
-        <v>44850</v>
+        <v>44879</v>
       </c>
       <c r="P1" s="11">
         <f t="shared" si="0"/>
-        <v>44851</v>
+        <v>44880</v>
       </c>
       <c r="Q1" s="11">
         <f t="shared" si="0"/>
-        <v>44852</v>
+        <v>44881</v>
       </c>
       <c r="R1" s="11">
         <f t="shared" si="0"/>
-        <v>44853</v>
+        <v>44882</v>
       </c>
       <c r="S1" s="11">
         <f t="shared" si="0"/>
-        <v>44854</v>
+        <v>44883</v>
       </c>
       <c r="T1" s="11">
         <f t="shared" si="0"/>
-        <v>44855</v>
+        <v>44884</v>
       </c>
       <c r="U1" s="11">
         <f t="shared" si="0"/>
-        <v>44856</v>
+        <v>44885</v>
       </c>
       <c r="V1" s="11">
         <f t="shared" si="0"/>
-        <v>44857</v>
+        <v>44886</v>
       </c>
       <c r="W1" s="11">
         <f t="shared" si="0"/>
-        <v>44858</v>
+        <v>44887</v>
       </c>
       <c r="X1" s="11">
         <f t="shared" si="0"/>
-        <v>44859</v>
+        <v>44888</v>
       </c>
       <c r="Y1" s="11">
         <f t="shared" si="0"/>
-        <v>44860</v>
+        <v>44889</v>
       </c>
       <c r="Z1" s="11">
         <f t="shared" si="0"/>
-        <v>44861</v>
+        <v>44890</v>
       </c>
       <c r="AA1" s="11">
         <f t="shared" si="0"/>
-        <v>44862</v>
+        <v>44891</v>
       </c>
       <c r="AB1" s="11">
         <f t="shared" si="0"/>
-        <v>44863</v>
+        <v>44892</v>
       </c>
       <c r="AC1" s="11">
         <f t="shared" si="0"/>
-        <v>44864</v>
+        <v>44893</v>
       </c>
       <c r="AD1" s="11">
         <f t="shared" si="0"/>
-        <v>44865</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AD2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
         <v>144</v>
       </c>
-      <c r="B4" t="s">
-        <v>145</v>
-      </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q6" t="s">
         <v>138</v>
       </c>
       <c r="R6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AC6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AD6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AC8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="R9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AC9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AD9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AD10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q11" t="s">
         <v>138</v>
       </c>
       <c r="R11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" t="s">
         <v>153</v>
       </c>
-      <c r="B12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F12" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" t="s">
-        <v>154</v>
-      </c>
       <c r="H12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AD12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q14" t="s">
         <v>138</v>
       </c>
       <c r="R14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q15" t="s">
         <v>138</v>
       </c>
       <c r="R15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q16" t="s">
         <v>138</v>
       </c>
       <c r="R16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AD17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AC19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AD20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AC21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AC22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AC28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AD28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AC30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AD33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AC34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AC36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
